--- a/CashFlow/IR_cashflow.xlsx
+++ b/CashFlow/IR_cashflow.xlsx
@@ -78,7 +78,7 @@
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="14.3"/>
@@ -294,7 +294,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>236500000.0</v>
+        <v>238100000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>41800000.0</v>
@@ -306,7 +306,7 @@
         <v>96300000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>11900000.0</v>
+        <v>10300000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>10500000.0</v>
@@ -434,19 +434,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3810000000.0</v>
+        <v>138300000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4065000000.0</v>
+        <v>170800000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3165900000.0</v>
+        <v>139700000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2167700000.0</v>
+        <v>45900000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1140200000.0</v>
+        <v>28600000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>18700000.0</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-87500000.0</v>
+        <v>-63000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>-13300000.0</v>
@@ -516,7 +516,7 @@
         <v>18100000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>87600000.0</v>
+        <v>63100000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-9200000.0</v>
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-87500000.0</v>
+        <v>2654000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-13300000.0</v>
+        <v>2745000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-61900000.0</v>
+        <v>2058800000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1300000.0</v>
+        <v>1423800000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>64000000.0</v>
+        <v>723400000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-26100000.0</v>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-44100000.0</v>
+        <v>-44800000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>-46900000.0</v>
@@ -790,7 +790,7 @@
         <v>-42300000.0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>-36300000.0</v>
+        <v>-35600000.0</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>-42300000.0</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>71100000.0</v>
+        <v>71200000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>51300000.0</v>
@@ -1610,7 +1610,7 @@
         <v>21800000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>15200000.0</v>
+        <v>15100000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>19200000.0</v>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>250200000.0</v>
+        <v>269900000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>384100000.0</v>
@@ -1750,7 +1750,7 @@
         <v>274100000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>50900000.0</v>
+        <v>31200000.0</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>-4400000.0</v>
